--- a/Bygningstype3_2siffer.xlsx
+++ b/Bygningstype3_2siffer.xlsx
@@ -798,8 +798,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -824,6 +824,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -913,6 +914,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -1060,7 +1066,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6653FA91-BC3E-4079-9134-B332DB5411AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4A657A-F944-479C-9ADE-BE64BD670C3D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
